--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>623081.503550555</v>
+        <v>647061.8093344113</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>895306.7723587519</v>
+        <v>895306.7723587513</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>58.39471844666273</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>157.0936159469526</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,73 +893,73 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>202.2946864288972</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -975,28 +975,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>53.36172263168805</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>14.84381815306946</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,61 +1142,61 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>124.4666106363196</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,76 +1367,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>243.2386572690346</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="D11" t="n">
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>243.2386572690345</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>45.90744773840616</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>15.0453582402393</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>29.71014592494661</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1607,73 +1607,73 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C14" t="n">
-        <v>243.2386572690347</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>243.2386572690345</v>
+      </c>
+      <c r="X14" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
       <c r="Y14" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>103.2736661406255</v>
       </c>
       <c r="H15" t="n">
-        <v>62.30169576668529</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>13.46550985000066</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1853,64 +1853,64 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="G17" t="n">
+      <c r="X17" t="n">
+        <v>243.2386572690346</v>
+      </c>
+      <c r="Y17" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>243.2386572690347</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>3.048448096658505</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>155.5032166200848</v>
       </c>
     </row>
     <row r="19">
@@ -2084,19 +2084,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F20" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>243.2386572690349</v>
       </c>
       <c r="H20" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>243.2386572690347</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.048448096658519</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>5.397413935625338</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>26.51572092966561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,70 +2318,70 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>243.2386572690347</v>
+      </c>
+      <c r="V23" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>243.2386572690349</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>276.1565137023554</v>
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9364262421938</v>
+        <v>175.7569470849741</v>
       </c>
       <c r="V24" t="n">
-        <v>21.07759781974089</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>243.2386572690349</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2612,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>243.2386572690345</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>276.1565137023554</v>
@@ -2643,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>6.412412932864791</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>175.7569470849741</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>7.203367682519206</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>243.2386572690349</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,64 +2801,64 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G29" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="I29" t="n">
-        <v>205.0481221176458</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>38.19053515138876</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>84.37927012913119</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>155.5032166200847</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,61 +3032,61 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E32" t="n">
+        <v>20.75911149906596</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>222.4795457699687</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="G32" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="H32" t="n">
-        <v>243.2386572690347</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3111,16 +3111,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>42.19796022409554</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>21.74228354222875</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3184,67 +3184,67 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,25 +3311,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>141.0252816852793</v>
+        <v>37.42681674263693</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>155.8903435161423</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,13 +3348,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>45.31133215986106</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>37.38465999357982</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>28.69723130130871</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3512,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H38" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>155.8903435161421</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="V38" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3594,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>76.80990972555271</v>
       </c>
       <c r="H39" t="n">
-        <v>60.37475069277586</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U39" t="n">
         <v>225.9364262421938</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>13.46550985000068</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>0.6773952840984472</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>243.2386572690345</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>276.1565137023554</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="W41" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>15.92068873709651</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.048448096658505</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>155.8903435161421</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>24.45904555236174</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9364262421938</v>
+        <v>175.7569470849743</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4119,10 +4119,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4132,67 +4132,67 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>333.7844730889342</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>333.7844730889342</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W2" t="n">
-        <v>333.7844730889342</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X2" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>577.1531170985884</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C3" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4410,22 +4410,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>805.3767353621993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>805.3767353621993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>577.1531170985884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>577.1531170985884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>577.1531170985884</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X3" t="n">
-        <v>577.1531170985884</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y3" t="n">
-        <v>577.1531170985884</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277.6047704292607</v>
+        <v>741.3031010355112</v>
       </c>
       <c r="C6" t="n">
-        <v>277.6047704292607</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="D6" t="n">
-        <v>277.6047704292607</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E6" t="n">
-        <v>277.6047704292607</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F6" t="n">
-        <v>277.6047704292607</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4680,16 +4680,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>949.063399800465</v>
       </c>
       <c r="X6" t="n">
-        <v>277.6047704292607</v>
+        <v>949.063399800465</v>
       </c>
       <c r="Y6" t="n">
-        <v>277.6047704292607</v>
+        <v>741.3031010355112</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4844,10 +4844,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4914,19 +4914,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W9" t="n">
-        <v>720.6083788665362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>512.7568786610034</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4987,25 +4987,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>579.9844679696338</v>
       </c>
       <c r="C11" t="n">
+        <v>579.9844679696338</v>
+      </c>
+      <c r="D11" t="n">
+        <v>579.9844679696338</v>
+      </c>
+      <c r="E11" t="n">
         <v>301.0384945329111</v>
-      </c>
-      <c r="D11" t="n">
-        <v>22.09252109618843</v>
-      </c>
-      <c r="E11" t="n">
-        <v>22.09252109618843</v>
       </c>
       <c r="F11" t="n">
         <v>22.09252109618843</v>
@@ -5048,13 +5048,13 @@
         <v>344.9085595412868</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173955</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
         <v>817.082927982354</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901061</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5075,16 +5075,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V11" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X11" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y11" t="n">
-        <v>858.9304414063565</v>
+        <v>825.6800813726991</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>469.2513214630052</v>
+        <v>37.28985265198571</v>
       </c>
       <c r="C12" t="n">
-        <v>294.7982921818782</v>
+        <v>37.28985265198571</v>
       </c>
       <c r="D12" t="n">
-        <v>294.7982921818782</v>
+        <v>37.28985265198571</v>
       </c>
       <c r="E12" t="n">
-        <v>294.7982921818782</v>
+        <v>37.28985265198571</v>
       </c>
       <c r="F12" t="n">
-        <v>248.4271328501548</v>
+        <v>37.28985265198571</v>
       </c>
       <c r="G12" t="n">
-        <v>109.772397078701</v>
+        <v>37.28985265198571</v>
       </c>
       <c r="H12" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I12" t="n">
         <v>22.09252109618843</v>
@@ -5121,19 +5121,19 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L12" t="n">
-        <v>159.4923828364511</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M12" t="n">
-        <v>432.8873314017829</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N12" t="n">
-        <v>706.2822799671148</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O12" t="n">
-        <v>972.7790935503986</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P12" t="n">
         <v>1025.71200399185</v>
@@ -5145,25 +5145,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>932.6220420606003</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U12" t="n">
-        <v>704.403429694748</v>
+        <v>902.746154837531</v>
       </c>
       <c r="V12" t="n">
-        <v>469.2513214630052</v>
+        <v>667.5940466057882</v>
       </c>
       <c r="W12" t="n">
-        <v>469.2513214630052</v>
+        <v>413.3566898775866</v>
       </c>
       <c r="X12" t="n">
-        <v>469.2513214630052</v>
+        <v>205.5051896720537</v>
       </c>
       <c r="Y12" t="n">
-        <v>469.2513214630052</v>
+        <v>205.5051896720537</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F13" t="n">
-        <v>52.10276950522541</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G13" t="n">
-        <v>52.10276950522541</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H13" t="n">
-        <v>52.10276950522541</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I13" t="n">
         <v>22.09252109618843</v>
@@ -5230,19 +5230,19 @@
         <v>198.9927170031358</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>546.7341079359765</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="C14" t="n">
         <v>301.0384945329111</v>
       </c>
       <c r="D14" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E14" t="n">
         <v>22.09252109618843</v>
@@ -5315,13 +5315,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W14" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="X14" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="Y14" t="n">
-        <v>825.6800813726991</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>678.3846853323987</v>
+        <v>285.6468105871243</v>
       </c>
       <c r="C15" t="n">
-        <v>678.3846853323987</v>
+        <v>285.6468105871243</v>
       </c>
       <c r="D15" t="n">
-        <v>529.4502756711474</v>
+        <v>285.6468105871243</v>
       </c>
       <c r="E15" t="n">
-        <v>370.2128206656919</v>
+        <v>126.4093555816688</v>
       </c>
       <c r="F15" t="n">
-        <v>223.6782626925769</v>
+        <v>126.4093555816688</v>
       </c>
       <c r="G15" t="n">
-        <v>85.02352692112308</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H15" t="n">
         <v>22.09252109618843</v>
@@ -5355,25 +5355,25 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J15" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K15" t="n">
-        <v>22.09252109618843</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L15" t="n">
-        <v>268.2479876888894</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M15" t="n">
-        <v>541.6429362542212</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N15" t="n">
-        <v>759.2151904085661</v>
+        <v>958.7443668768126</v>
       </c>
       <c r="O15" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P15" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q15" t="n">
         <v>1104.626054809422</v>
@@ -5382,25 +5382,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S15" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T15" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U15" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V15" t="n">
-        <v>932.6220420606003</v>
+        <v>869.473946577679</v>
       </c>
       <c r="W15" t="n">
-        <v>678.3846853323987</v>
+        <v>869.473946577679</v>
       </c>
       <c r="X15" t="n">
-        <v>678.3846853323987</v>
+        <v>661.6224463721462</v>
       </c>
       <c r="Y15" t="n">
-        <v>678.3846853323987</v>
+        <v>453.8621476071923</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09252109618843</v>
+        <v>185.391191902125</v>
       </c>
       <c r="H16" t="n">
         <v>22.09252109618843</v>
@@ -5440,7 +5440,7 @@
         <v>22.09252109618843</v>
       </c>
       <c r="L16" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M16" t="n">
         <v>107.6904745160686</v>
@@ -5473,13 +5473,13 @@
         <v>198.9927170031358</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>579.9844679696338</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C17" t="n">
-        <v>579.9844679696338</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D17" t="n">
-        <v>579.9844679696338</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E17" t="n">
-        <v>579.9844679696338</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F17" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G17" t="n">
         <v>22.09252109618843</v>
@@ -5552,13 +5552,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W17" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="X17" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="Y17" t="n">
-        <v>858.9304414063565</v>
+        <v>301.0384945329111</v>
       </c>
     </row>
     <row r="18">
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>196.5455503773155</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C18" t="n">
         <v>22.09252109618843</v>
@@ -5592,16 +5592,16 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J18" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K18" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="L18" t="n">
-        <v>268.2479876888894</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M18" t="n">
-        <v>367.8501726635175</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N18" t="n">
         <v>641.2451212288494</v>
@@ -5622,22 +5622,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T18" t="n">
-        <v>1101.546814307746</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U18" t="n">
-        <v>1101.546814307746</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V18" t="n">
-        <v>866.3947060760038</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W18" t="n">
-        <v>612.1573493478022</v>
+        <v>387.0179774836251</v>
       </c>
       <c r="X18" t="n">
-        <v>404.3058491422694</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="Y18" t="n">
-        <v>196.5455503773155</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>579.9844679696338</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="C20" t="n">
-        <v>579.9844679696338</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="D20" t="n">
-        <v>579.9844679696338</v>
+        <v>825.6800813726993</v>
       </c>
       <c r="E20" t="n">
-        <v>579.9844679696338</v>
+        <v>546.7341079359767</v>
       </c>
       <c r="F20" t="n">
-        <v>301.0384945329111</v>
+        <v>267.788134499254</v>
       </c>
       <c r="G20" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H20" t="n">
         <v>22.09252109618843</v>
@@ -5786,16 +5786,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V20" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W20" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X20" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y20" t="n">
-        <v>579.9844679696338</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>199.6247908789907</v>
+        <v>510.1693483123307</v>
       </c>
       <c r="C21" t="n">
-        <v>25.17176159786371</v>
+        <v>335.7163190312036</v>
       </c>
       <c r="D21" t="n">
-        <v>25.17176159786371</v>
+        <v>186.7819093699524</v>
       </c>
       <c r="E21" t="n">
-        <v>25.17176159786371</v>
+        <v>27.54445436449686</v>
       </c>
       <c r="F21" t="n">
-        <v>25.17176159786371</v>
+        <v>27.54445436449686</v>
       </c>
       <c r="G21" t="n">
-        <v>22.09252109618843</v>
+        <v>27.54445436449686</v>
       </c>
       <c r="H21" t="n">
         <v>22.09252109618843</v>
@@ -5829,25 +5829,25 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J21" t="n">
-        <v>28.39914141318535</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K21" t="n">
-        <v>28.39914141318535</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L21" t="n">
-        <v>94.45522409818568</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M21" t="n">
-        <v>367.8501726635175</v>
+        <v>562.3310704112774</v>
       </c>
       <c r="N21" t="n">
-        <v>641.2451212288494</v>
+        <v>562.3310704112774</v>
       </c>
       <c r="O21" t="n">
-        <v>907.7419348121332</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="P21" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q21" t="n">
         <v>1104.626054809422</v>
@@ -5856,25 +5856,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S21" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T21" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="U21" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="V21" t="n">
-        <v>869.473946577679</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="W21" t="n">
-        <v>615.2365898494775</v>
+        <v>678.3846853323987</v>
       </c>
       <c r="X21" t="n">
-        <v>407.3850896439446</v>
+        <v>678.3846853323987</v>
       </c>
       <c r="Y21" t="n">
-        <v>199.6247908789907</v>
+        <v>678.3846853323987</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1077.84249831481</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C22" t="n">
-        <v>1077.84249831481</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D22" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E22" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F22" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G22" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H22" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I22" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J22" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K22" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L22" t="n">
-        <v>964.335235071213</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M22" t="n">
-        <v>1013.323812322354</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N22" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O22" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P22" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q22" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R22" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S22" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T22" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U22" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V22" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W22" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X22" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y22" t="n">
-        <v>1077.84249831481</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>825.6800813726993</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C23" t="n">
-        <v>546.7341079359767</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D23" t="n">
-        <v>546.7341079359767</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E23" t="n">
-        <v>267.788134499254</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F23" t="n">
-        <v>267.788134499254</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G23" t="n">
-        <v>267.788134499254</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H23" t="n">
         <v>22.09252109618843</v>
@@ -6020,19 +6020,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U23" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="V23" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="W23" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="X23" t="n">
-        <v>1104.626054809422</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="Y23" t="n">
-        <v>825.6800813726993</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>273.3815266691013</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C24" t="n">
-        <v>273.3815266691013</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D24" t="n">
-        <v>273.3815266691013</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E24" t="n">
-        <v>273.3815266691013</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F24" t="n">
-        <v>273.3815266691013</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G24" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H24" t="n">
         <v>22.09252109618843</v>
@@ -6066,22 +6066,22 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J24" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K24" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="L24" t="n">
-        <v>268.2479876888894</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M24" t="n">
-        <v>541.6429362542212</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N24" t="n">
-        <v>815.037884819553</v>
+        <v>641.2451212288494</v>
       </c>
       <c r="O24" t="n">
-        <v>1081.534698402837</v>
+        <v>907.7419348121332</v>
       </c>
       <c r="P24" t="n">
         <v>1104.626054809422</v>
@@ -6093,25 +6093,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S24" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T24" t="n">
-        <v>730.7421420887096</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U24" t="n">
-        <v>502.5235297228572</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="V24" t="n">
-        <v>481.2330268746341</v>
+        <v>691.9416767948768</v>
       </c>
       <c r="W24" t="n">
-        <v>481.2330268746341</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X24" t="n">
-        <v>273.3815266691013</v>
+        <v>229.8528198611423</v>
       </c>
       <c r="Y24" t="n">
-        <v>273.3815266691013</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="25">
@@ -6175,19 +6175,19 @@
         <v>198.9927170031358</v>
       </c>
       <c r="T25" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U25" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V25" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W25" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X25" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y25" t="n">
         <v>22.09252109618843</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22.09252109618843</v>
+        <v>825.6800813726993</v>
       </c>
       <c r="C26" t="n">
-        <v>22.09252109618843</v>
+        <v>825.6800813726993</v>
       </c>
       <c r="D26" t="n">
-        <v>22.09252109618843</v>
+        <v>825.6800813726993</v>
       </c>
       <c r="E26" t="n">
-        <v>22.09252109618843</v>
+        <v>546.7341079359767</v>
       </c>
       <c r="F26" t="n">
-        <v>22.09252109618843</v>
+        <v>267.788134499254</v>
       </c>
       <c r="G26" t="n">
         <v>22.09252109618843</v>
@@ -6260,16 +6260,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V26" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W26" t="n">
-        <v>579.9844679696338</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X26" t="n">
-        <v>301.0384945329111</v>
+        <v>825.6800813726993</v>
       </c>
       <c r="Y26" t="n">
-        <v>301.0384945329111</v>
+        <v>825.6800813726993</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>287.738533651434</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C27" t="n">
-        <v>287.738533651434</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D27" t="n">
-        <v>287.738533651434</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E27" t="n">
-        <v>287.738533651434</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F27" t="n">
-        <v>141.203975678319</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G27" t="n">
-        <v>134.7267908976475</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H27" t="n">
         <v>22.09252109618843</v>
@@ -6303,25 +6303,25 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J27" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K27" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L27" t="n">
-        <v>274.5546080058863</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M27" t="n">
-        <v>367.8501726635175</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N27" t="n">
-        <v>641.2451212288494</v>
+        <v>759.2151904085659</v>
       </c>
       <c r="O27" t="n">
-        <v>907.7419348121332</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P27" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q27" t="n">
         <v>1104.626054809422</v>
@@ -6330,25 +6330,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S27" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T27" t="n">
-        <v>730.7421420887096</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U27" t="n">
-        <v>730.7421420887096</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="V27" t="n">
-        <v>495.5900338569668</v>
+        <v>691.9416767948768</v>
       </c>
       <c r="W27" t="n">
-        <v>495.5900338569668</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X27" t="n">
-        <v>287.738533651434</v>
+        <v>229.8528198611423</v>
       </c>
       <c r="Y27" t="n">
-        <v>287.738533651434</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1097.34992583718</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="C28" t="n">
-        <v>1097.34992583718</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="D28" t="n">
-        <v>1097.34992583718</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="E28" t="n">
-        <v>1097.34992583718</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="F28" t="n">
-        <v>1097.34992583718</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="G28" t="n">
         <v>927.7258589024743</v>
@@ -6409,25 +6409,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S28" t="n">
-        <v>1097.34992583718</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T28" t="n">
-        <v>1097.34992583718</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U28" t="n">
-        <v>1097.34992583718</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V28" t="n">
-        <v>1097.34992583718</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W28" t="n">
-        <v>1097.34992583718</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="X28" t="n">
-        <v>1097.34992583718</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.34992583718</v>
+        <v>927.7258589024743</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>787.1037832399832</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C29" t="n">
-        <v>787.1037832399832</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D29" t="n">
-        <v>787.1037832399832</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E29" t="n">
-        <v>787.1037832399832</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F29" t="n">
-        <v>787.1037832399832</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G29" t="n">
-        <v>508.1578098032604</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H29" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I29" t="n">
         <v>22.09252109618843</v>
@@ -6488,25 +6488,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S29" t="n">
-        <v>1066.049756676706</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T29" t="n">
-        <v>1066.049756676706</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U29" t="n">
-        <v>1066.049756676706</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V29" t="n">
-        <v>787.1037832399832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W29" t="n">
-        <v>787.1037832399832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X29" t="n">
-        <v>787.1037832399832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y29" t="n">
-        <v>787.1037832399832</v>
+        <v>825.6800813726993</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22.09252109618843</v>
+        <v>266.5615620906653</v>
       </c>
       <c r="C30" t="n">
-        <v>22.09252109618843</v>
+        <v>266.5615620906653</v>
       </c>
       <c r="D30" t="n">
-        <v>22.09252109618843</v>
+        <v>266.5615620906653</v>
       </c>
       <c r="E30" t="n">
-        <v>22.09252109618843</v>
+        <v>107.3241070852098</v>
       </c>
       <c r="F30" t="n">
-        <v>22.09252109618843</v>
+        <v>107.3241070852098</v>
       </c>
       <c r="G30" t="n">
         <v>22.09252109618843</v>
@@ -6567,25 +6567,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S30" t="n">
-        <v>947.5520986275179</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T30" t="n">
-        <v>947.5520986275179</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U30" t="n">
-        <v>719.3334862616656</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V30" t="n">
-        <v>484.1813780299229</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W30" t="n">
-        <v>229.9440213017212</v>
+        <v>850.3886980812201</v>
       </c>
       <c r="X30" t="n">
-        <v>22.09252109618843</v>
+        <v>642.5371978756873</v>
       </c>
       <c r="Y30" t="n">
-        <v>22.09252109618843</v>
+        <v>434.7768991107334</v>
       </c>
     </row>
     <row r="31">
@@ -6652,16 +6652,16 @@
         <v>198.9927170031358</v>
       </c>
       <c r="U31" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V31" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W31" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X31" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y31" t="n">
         <v>22.09252109618843</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1104.626054809422</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="C32" t="n">
-        <v>1104.626054809422</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="D32" t="n">
-        <v>1104.626054809422</v>
+        <v>322.0072940269171</v>
       </c>
       <c r="E32" t="n">
-        <v>825.6800813726991</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F32" t="n">
-        <v>546.7341079359765</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G32" t="n">
-        <v>267.7881344992538</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="H32" t="n">
         <v>22.09252109618843</v>
@@ -6728,22 +6728,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T32" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="U32" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="V32" t="n">
-        <v>1104.626054809422</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="W32" t="n">
-        <v>1104.626054809422</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="X32" t="n">
-        <v>1104.626054809422</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="Y32" t="n">
-        <v>1104.626054809422</v>
+        <v>600.9532674636398</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>504.7174150440222</v>
+        <v>239.1697526238766</v>
       </c>
       <c r="C33" t="n">
-        <v>330.2643857628952</v>
+        <v>64.71672334274959</v>
       </c>
       <c r="D33" t="n">
-        <v>181.3299761016439</v>
+        <v>64.71672334274959</v>
       </c>
       <c r="E33" t="n">
-        <v>22.09252109618843</v>
+        <v>64.71672334274959</v>
       </c>
       <c r="F33" t="n">
-        <v>22.09252109618843</v>
+        <v>64.71672334274959</v>
       </c>
       <c r="G33" t="n">
         <v>22.09252109618843</v>
@@ -6783,16 +6783,16 @@
         <v>22.09252109618843</v>
       </c>
       <c r="L33" t="n">
-        <v>94.45522409818568</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M33" t="n">
-        <v>367.8501726635175</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N33" t="n">
-        <v>641.2451212288494</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O33" t="n">
-        <v>907.7419348121332</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P33" t="n">
         <v>1104.626054809422</v>
@@ -6801,28 +6801,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R33" t="n">
-        <v>1082.664152241514</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S33" t="n">
-        <v>1082.664152241514</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T33" t="n">
-        <v>880.784252269623</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U33" t="n">
-        <v>880.784252269623</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V33" t="n">
-        <v>880.784252269623</v>
+        <v>869.473946577679</v>
       </c>
       <c r="W33" t="n">
-        <v>880.784252269623</v>
+        <v>615.2365898494775</v>
       </c>
       <c r="X33" t="n">
-        <v>672.9327520640902</v>
+        <v>407.3850896439446</v>
       </c>
       <c r="Y33" t="n">
-        <v>672.9327520640902</v>
+        <v>407.3850896439446</v>
       </c>
     </row>
     <row r="34">
@@ -6892,16 +6892,16 @@
         <v>198.9927170031358</v>
       </c>
       <c r="V34" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W34" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X34" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y34" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C35" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D35" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E35" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F35" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G35" t="n">
         <v>22.09252109618843</v>
@@ -6959,28 +6959,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R35" t="n">
-        <v>962.1762753293418</v>
+        <v>1066.821189412819</v>
       </c>
       <c r="S35" t="n">
-        <v>962.1762753293418</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="T35" t="n">
-        <v>737.4494614202825</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="U35" t="n">
+        <v>858.9304414063565</v>
+      </c>
+      <c r="V35" t="n">
         <v>579.9844679696338</v>
-      </c>
-      <c r="V35" t="n">
-        <v>301.0384945329111</v>
       </c>
       <c r="W35" t="n">
         <v>301.0384945329111</v>
       </c>
       <c r="X35" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y35" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>689.014255838935</v>
+        <v>242.3145727610135</v>
       </c>
       <c r="C36" t="n">
-        <v>514.561226557808</v>
+        <v>67.86154347988648</v>
       </c>
       <c r="D36" t="n">
-        <v>365.6268168965568</v>
+        <v>67.86154347988648</v>
       </c>
       <c r="E36" t="n">
-        <v>206.3893618911013</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F36" t="n">
-        <v>59.85480391798623</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G36" t="n">
-        <v>59.85480391798623</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H36" t="n">
-        <v>59.85480391798623</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I36" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J36" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K36" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L36" t="n">
-        <v>274.5546080058863</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M36" t="n">
-        <v>547.9495565712182</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N36" t="n">
-        <v>759.2151904085659</v>
+        <v>641.2451212288494</v>
       </c>
       <c r="O36" t="n">
-        <v>1025.71200399185</v>
+        <v>907.7419348121332</v>
       </c>
       <c r="P36" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q36" t="n">
         <v>1104.626054809422</v>
@@ -7041,25 +7041,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S36" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T36" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="U36" t="n">
-        <v>1104.626054809422</v>
+        <v>704.403429694748</v>
       </c>
       <c r="V36" t="n">
-        <v>1104.626054809422</v>
+        <v>704.403429694748</v>
       </c>
       <c r="W36" t="n">
-        <v>1104.626054809422</v>
+        <v>450.1660729665463</v>
       </c>
       <c r="X36" t="n">
-        <v>896.7745546038889</v>
+        <v>242.3145727610135</v>
       </c>
       <c r="Y36" t="n">
-        <v>689.014255838935</v>
+        <v>242.3145727610135</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="C37" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="D37" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="E37" t="n">
-        <v>956.7129612270286</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="F37" t="n">
         <v>927.7258589024743</v>
@@ -7138,7 +7138,7 @@
         <v>1104.626054809422</v>
       </c>
       <c r="Y37" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024743</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>301.0384945329111</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="C38" t="n">
-        <v>301.0384945329111</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="D38" t="n">
-        <v>301.0384945329111</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="E38" t="n">
-        <v>301.0384945329111</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="F38" t="n">
-        <v>301.0384945329111</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="G38" t="n">
-        <v>301.0384945329111</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H38" t="n">
         <v>22.09252109618843</v>
@@ -7184,10 +7184,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N38" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O38" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P38" t="n">
         <v>1099.465256491931</v>
@@ -7196,28 +7196,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R38" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S38" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T38" t="n">
-        <v>737.4494614202823</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U38" t="n">
-        <v>579.9844679696338</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="V38" t="n">
-        <v>301.0384945329111</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W38" t="n">
-        <v>301.0384945329111</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X38" t="n">
-        <v>301.0384945329111</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y38" t="n">
-        <v>301.0384945329111</v>
+        <v>858.9304414063566</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>242.3145727610135</v>
+        <v>258.9157435011921</v>
       </c>
       <c r="C39" t="n">
-        <v>242.3145727610135</v>
+        <v>258.9157435011921</v>
       </c>
       <c r="D39" t="n">
-        <v>242.3145727610135</v>
+        <v>258.9157435011921</v>
       </c>
       <c r="E39" t="n">
-        <v>83.07711775555799</v>
+        <v>99.67828849573664</v>
       </c>
       <c r="F39" t="n">
-        <v>83.07711775555799</v>
+        <v>99.67828849573664</v>
       </c>
       <c r="G39" t="n">
-        <v>83.07711775555799</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H39" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I39" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J39" t="n">
-        <v>28.39914141318534</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K39" t="n">
-        <v>28.39914141318534</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L39" t="n">
-        <v>274.5546080058863</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M39" t="n">
-        <v>485.8202418432341</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N39" t="n">
-        <v>759.2151904085659</v>
+        <v>958.7443668768127</v>
       </c>
       <c r="O39" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P39" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q39" t="n">
         <v>1104.626054809422</v>
@@ -7278,25 +7278,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S39" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T39" t="n">
-        <v>932.6220420606003</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="U39" t="n">
-        <v>704.403429694748</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="V39" t="n">
-        <v>704.403429694748</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="W39" t="n">
-        <v>450.1660729665463</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="X39" t="n">
-        <v>242.3145727610135</v>
+        <v>466.6760422661461</v>
       </c>
       <c r="Y39" t="n">
-        <v>242.3145727610135</v>
+        <v>258.9157435011921</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C40" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D40" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E40" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F40" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G40" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H40" t="n">
-        <v>941.3273840034851</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I40" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J40" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K40" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L40" t="n">
-        <v>964.335235071213</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M40" t="n">
-        <v>1013.323812322354</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N40" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O40" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P40" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q40" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R40" t="n">
-        <v>1104.626054809422</v>
+        <v>22.77675875689394</v>
       </c>
       <c r="S40" t="n">
-        <v>1104.626054809422</v>
+        <v>22.77675875689394</v>
       </c>
       <c r="T40" t="n">
-        <v>1104.626054809422</v>
+        <v>22.77675875689394</v>
       </c>
       <c r="U40" t="n">
-        <v>1104.626054809422</v>
+        <v>22.77675875689394</v>
       </c>
       <c r="V40" t="n">
-        <v>1104.626054809422</v>
+        <v>22.77675875689394</v>
       </c>
       <c r="W40" t="n">
-        <v>1104.626054809422</v>
+        <v>22.77675875689394</v>
       </c>
       <c r="X40" t="n">
-        <v>1104.626054809422</v>
+        <v>22.77675875689394</v>
       </c>
       <c r="Y40" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>22.09252109618843</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="C41" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D41" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E41" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F41" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G41" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H41" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I41" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J41" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K41" t="n">
         <v>142.8373253438683</v>
@@ -7442,19 +7442,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U41" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V41" t="n">
-        <v>579.9844679696338</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W41" t="n">
-        <v>301.0384945329111</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X41" t="n">
-        <v>22.09252109618843</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y41" t="n">
-        <v>22.09252109618843</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>196.5455503773155</v>
+        <v>520.7989188188672</v>
       </c>
       <c r="C42" t="n">
-        <v>22.09252109618843</v>
+        <v>346.3458895377402</v>
       </c>
       <c r="D42" t="n">
-        <v>22.09252109618843</v>
+        <v>197.4114798764889</v>
       </c>
       <c r="E42" t="n">
-        <v>22.09252109618843</v>
+        <v>38.1740248710334</v>
       </c>
       <c r="F42" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G42" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H42" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I42" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J42" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K42" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L42" t="n">
-        <v>405.6478494291521</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M42" t="n">
-        <v>562.3310704112774</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N42" t="n">
-        <v>562.3310704112774</v>
+        <v>815.0378848195531</v>
       </c>
       <c r="O42" t="n">
-        <v>828.8278839945613</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P42" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q42" t="n">
         <v>1104.626054809422</v>
@@ -7521,19 +7521,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U42" t="n">
-        <v>1101.546814307746</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V42" t="n">
-        <v>866.3947060760038</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W42" t="n">
-        <v>612.1573493478022</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X42" t="n">
-        <v>404.3058491422694</v>
+        <v>896.7745546038891</v>
       </c>
       <c r="Y42" t="n">
-        <v>196.5455503773155</v>
+        <v>689.0142558389352</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>927.7258589024743</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="C43" t="n">
-        <v>927.7258589024743</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="D43" t="n">
-        <v>927.7258589024743</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="E43" t="n">
-        <v>927.7258589024743</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="F43" t="n">
-        <v>927.7258589024743</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="G43" t="n">
-        <v>927.7258589024743</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="H43" t="n">
-        <v>927.7258589024743</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="I43" t="n">
-        <v>927.7258589024743</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="J43" t="n">
-        <v>927.7258589024743</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="K43" t="n">
-        <v>927.7258589024743</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="L43" t="n">
-        <v>964.335235071213</v>
+        <v>964.3352350712132</v>
       </c>
       <c r="M43" t="n">
-        <v>1013.323812322354</v>
+        <v>1013.323812322355</v>
       </c>
       <c r="N43" t="n">
         <v>1066.582167123171</v>
@@ -7594,25 +7594,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S43" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="T43" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="U43" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="V43" t="n">
-        <v>1104.626054809422</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="W43" t="n">
-        <v>927.7258589024743</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="X43" t="n">
-        <v>927.7258589024743</v>
+        <v>927.7258589024746</v>
       </c>
       <c r="Y43" t="n">
-        <v>927.7258589024743</v>
+        <v>927.7258589024746</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22.09252109618843</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C44" t="n">
-        <v>22.09252109618843</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="D44" t="n">
-        <v>22.09252109618843</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="E44" t="n">
-        <v>22.09252109618843</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="F44" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G44" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H44" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I44" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J44" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K44" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L44" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M44" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N44" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O44" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901065</v>
       </c>
       <c r="P44" t="n">
         <v>1099.465256491931</v>
@@ -7670,28 +7670,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R44" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S44" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T44" t="n">
-        <v>737.4494614202823</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U44" t="n">
-        <v>579.9844679696338</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V44" t="n">
-        <v>301.0384945329111</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W44" t="n">
-        <v>22.09252109618843</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X44" t="n">
-        <v>22.09252109618843</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y44" t="n">
-        <v>22.09252109618843</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C45" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D45" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E45" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F45" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G45" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H45" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I45" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J45" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K45" t="n">
         <v>159.4923828364511</v>
@@ -7734,13 +7734,13 @@
         <v>405.6478494291521</v>
       </c>
       <c r="M45" t="n">
-        <v>562.3310704112774</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N45" t="n">
-        <v>562.3310704112774</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O45" t="n">
-        <v>828.8278839945613</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P45" t="n">
         <v>1025.71200399185</v>
@@ -7752,25 +7752,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S45" t="n">
-        <v>932.6220420606003</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T45" t="n">
-        <v>907.9159354420531</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U45" t="n">
-        <v>679.6973230762007</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="V45" t="n">
-        <v>444.5452148444581</v>
+        <v>691.9416767948769</v>
       </c>
       <c r="W45" t="n">
-        <v>190.3078581162565</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X45" t="n">
-        <v>190.3078581162565</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.3078581162565</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C46" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D46" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E46" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F46" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G46" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H46" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I46" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J46" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K46" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L46" t="n">
-        <v>964.335235071213</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M46" t="n">
-        <v>1013.323812322354</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N46" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O46" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P46" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q46" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R46" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S46" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T46" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U46" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V46" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W46" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X46" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y46" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,13 +8541,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,22 +8769,22 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L12" t="n">
-        <v>122.1984598562865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>387.9064735273546</v>
+        <v>132.647065034147</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>173.0575064623238</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>125.6774978810002</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>399.2039605324505</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N15" t="n">
-        <v>331.5199135162566</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>272.0288590235228</v>
       </c>
       <c r="P15" t="n">
         <v>119.5899201578276</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>125.6774978810001</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>223.6557144812346</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N18" t="n">
-        <v>387.9064735273546</v>
+        <v>205.9879039236166</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>188.9217756997211</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>399.2039605324504</v>
+        <v>274.9430030574975</v>
       </c>
       <c r="N21" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>125.6774978810001</v>
@@ -9726,13 +9726,13 @@
         <v>399.2039605324504</v>
       </c>
       <c r="N24" t="n">
-        <v>387.9064735273546</v>
+        <v>205.9879039236166</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>142.9145225887213</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>130.3661252938572</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K27" t="n">
         <v>125.6774978810001</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>217.2853909287124</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N27" t="n">
-        <v>387.9064735273546</v>
+        <v>331.5199135162565</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,7 +10200,7 @@
         <v>399.2039605324504</v>
       </c>
       <c r="N30" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10431,7 +10431,7 @@
         <v>125.6774978810001</v>
       </c>
       <c r="L33" t="n">
-        <v>195.2920992522432</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>399.2039605324504</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887213</v>
       </c>
       <c r="Q33" t="n">
         <v>130.3661252938572</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K36" t="n">
         <v>125.6774978810001</v>
@@ -10674,16 +10674,16 @@
         <v>399.2039605324504</v>
       </c>
       <c r="N36" t="n">
-        <v>325.1495899637343</v>
+        <v>212.3582274761388</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>336.4470769688302</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N39" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>272.0288590235228</v>
       </c>
       <c r="P39" t="n">
         <v>119.5899201578276</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>281.3133266100197</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N42" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711649</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11382,10 +11382,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>281.3133266100197</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N45" t="n">
-        <v>111.7499598249992</v>
+        <v>270.0158396049241</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22565,10 +22565,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>152.0811711237432</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,28 +22589,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,25 +22623,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22674,25 +22674,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>14.58955515688524</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22708,7 +22708,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,7 +22793,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22844,10 +22844,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>167.4364142495718</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22863,28 +22863,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>83.98179453152258</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,16 +22920,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>236.8511650078501</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -23100,13 +23100,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>48.24188835199617</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23154,10 +23154,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -23203,7 +23203,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23227,10 +23227,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
-        <v>117.0281136687963</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.5773279611251</v>
+        <v>139.4951843944459</v>
       </c>
       <c r="C11" t="n">
-        <v>89.11637806865212</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>78.52652791832753</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
         <v>415.1619485273195</v>
@@ -23315,7 +23315,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>84.51360120110039</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="12">
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23346,16 +23346,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>99.16176465497773</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>96.46256886320515</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,22 +23385,22 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.9278262653587</v>
@@ -23434,7 +23434,7 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>123.8411432570844</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
         <v>88.89425643449839</v>
@@ -23470,7 +23470,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23495,13 +23495,13 @@
         <v>106.5773279611251</v>
       </c>
       <c r="C14" t="n">
-        <v>122.0342345019729</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E14" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23555,13 +23555,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>106.0023114483785</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23571,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>33.99452227311377</v>
       </c>
       <c r="H15" t="n">
-        <v>49.20623133675915</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I15" t="n">
         <v>86.80307722268741</v>
@@ -23622,7 +23622,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
         <v>199.8611009721718</v>
@@ -23631,16 +23631,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9278262653587</v>
+        <v>154.4623164153581</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>153.551289182031</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>111.3918043887132</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23741,10 +23741,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H17" t="n">
         <v>338.0329468943008</v>
@@ -23792,13 +23792,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>126.4924434094344</v>
       </c>
       <c r="Y17" t="n">
-        <v>142.9992813870188</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="18">
@@ -23811,7 +23811,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23862,10 +23862,10 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8126528755133</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>50.17947915721956</v>
       </c>
     </row>
     <row r="19">
@@ -23972,19 +23972,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F20" t="n">
         <v>130.719532039356</v>
       </c>
       <c r="G20" t="n">
-        <v>415.1619485273195</v>
+        <v>171.9232912582845</v>
       </c>
       <c r="H20" t="n">
-        <v>61.87643319194541</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I20" t="n">
         <v>205.0481221176458</v>
@@ -24026,7 +24026,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V20" t="n">
-        <v>84.51360120110016</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24045,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.2197403170808</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5079271034444</v>
+        <v>106.1105131678191</v>
       </c>
       <c r="I21" t="n">
         <v>86.80307722268741</v>
@@ -24096,7 +24096,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S21" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>199.8611009721718</v>
@@ -24105,16 +24105,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24181,7 +24181,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.0689324224292</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,13 +24206,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>89.11637806865212</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24221,7 @@
         <v>415.1619485273195</v>
       </c>
       <c r="H23" t="n">
-        <v>94.79428962526592</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I23" t="n">
         <v>205.0481221176458</v>
@@ -24260,16 +24260,16 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3343897888113</v>
+        <v>8.095732519776504</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y23" t="n">
         <v>110.0814249536982</v>
@@ -24297,10 +24297,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I24" t="n">
         <v>86.80307722268741</v>
@@ -24333,25 +24333,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>50.17947915721973</v>
       </c>
       <c r="V24" t="n">
-        <v>211.7229893296844</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24415,7 +24415,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T25" t="n">
-        <v>52.54455953715791</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U25" t="n">
         <v>286.3155846423218</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>43.45345940421691</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,13 +24449,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G26" t="n">
-        <v>415.1619485273195</v>
+        <v>171.9232912582845</v>
       </c>
       <c r="H26" t="n">
         <v>338.0329468943008</v>
@@ -24500,10 +24500,10 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V26" t="n">
-        <v>84.51360120110039</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>93.57458697611361</v>
@@ -24531,13 +24531,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>130.8557754808745</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I27" t="n">
         <v>86.80307722268741</v>
@@ -24570,25 +24570,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9364262421938</v>
+        <v>50.17947915721973</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H28" t="n">
         <v>161.6656840978772</v>
@@ -24649,7 +24649,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S28" t="n">
-        <v>215.7126441774274</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T28" t="n">
         <v>227.6757534850358</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>139.4951843944457</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,16 +24689,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G29" t="n">
         <v>139.005434824964</v>
       </c>
       <c r="H29" t="n">
-        <v>61.87643319194541</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S29" t="n">
-        <v>167.6213053750091</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T29" t="n">
         <v>222.4795457699687</v>
@@ -24737,7 +24737,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V29" t="n">
-        <v>51.59574476777948</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,13 +24765,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.2681884137393</v>
+        <v>52.88891828460811</v>
       </c>
       <c r="H30" t="n">
         <v>111.5079271034444</v>
@@ -24807,16 +24807,16 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S30" t="n">
-        <v>14.78075600124839</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T30" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24892,7 +24892,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.45345940421691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24920,19 +24920,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E32" t="n">
-        <v>105.7738563699064</v>
+        <v>361.1712585731958</v>
       </c>
       <c r="F32" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H32" t="n">
-        <v>94.79428962526615</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I32" t="n">
         <v>205.0481221176458</v>
@@ -24968,13 +24968,13 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T32" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24999,16 +24999,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.2681884137393</v>
+        <v>95.07022818964376</v>
       </c>
       <c r="H33" t="n">
         <v>111.5079271034444</v>
@@ -25041,22 +25041,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>73.73856035815082</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S33" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U33" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.700786234059422</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25132,7 +25132,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595013</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H35" t="n">
         <v>338.0329468943008</v>
@@ -25199,25 +25199,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>103.5984649426424</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U35" t="n">
-        <v>95.444046272669</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V35" t="n">
         <v>51.59574476777948</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,13 +25236,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>112.3337482955399</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.2681884137393</v>
@@ -25251,7 +25251,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I36" t="n">
-        <v>49.41841722910759</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S36" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25318,10 +25318,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>116.7238167216225</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9278262653587</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>43.45345940421691</v>
       </c>
     </row>
     <row r="38">
@@ -25400,13 +25400,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G38" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H38" t="n">
-        <v>61.87643319194541</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I38" t="n">
         <v>205.0481221176458</v>
@@ -25436,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S38" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U38" t="n">
-        <v>95.4440462726692</v>
+        <v>8.095732519776618</v>
       </c>
       <c r="V38" t="n">
-        <v>51.59574476777948</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25482,10 +25482,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.2681884137393</v>
+        <v>60.45827868818658</v>
       </c>
       <c r="H39" t="n">
-        <v>51.13317641066859</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I39" t="n">
         <v>86.80307722268741</v>
@@ -25518,10 +25518,10 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T39" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,13 +25530,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25564,10 +25564,10 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I40" t="n">
-        <v>140.0857793320303</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J40" t="n">
         <v>88.89425643449839</v>
@@ -25594,7 +25594,7 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R40" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>222.9160118599466</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>217.9072580679963</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25682,19 +25682,19 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U41" t="n">
-        <v>8.095732519776732</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V41" t="n">
-        <v>51.59574476777948</v>
+        <v>84.51360120110027</v>
       </c>
       <c r="W41" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="42">
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>129.1485236562874</v>
       </c>
       <c r="G42" t="n">
         <v>137.2681884137393</v>
@@ -25725,7 +25725,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I42" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25761,13 +25761,13 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U42" t="n">
-        <v>222.8879781455353</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S43" t="n">
-        <v>222.9160118599466</v>
+        <v>47.78481791206875</v>
       </c>
       <c r="T43" t="n">
         <v>227.6757534850358</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,7 +25874,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>163.6373884726768</v>
       </c>
       <c r="G44" t="n">
         <v>415.1619485273195</v>
@@ -25910,28 +25910,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S44" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U44" t="n">
-        <v>95.4440462726692</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V44" t="n">
-        <v>51.59574476777948</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25962,7 +25962,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I45" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,13 +25992,13 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T45" t="n">
-        <v>175.4020554198101</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>50.1794791572195</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26007,10 +26007,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.700786234059422</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26080,7 +26080,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>77.0064493759501</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778747</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778747</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>495176.2609070226</v>
+        <v>495176.2609070227</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>495176.2609070226</v>
+        <v>495176.2609070227</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>495176.2609070226</v>
+        <v>495176.2609070227</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>495176.2609070226</v>
+        <v>495176.2609070227</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>132928.5380250659</v>
+      </c>
+      <c r="C2" t="n">
         <v>132928.538025066</v>
-      </c>
-      <c r="C2" t="n">
-        <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
         <v>132928.5380250659</v>
@@ -26323,7 +26323,7 @@
         <v>141745.4664845208</v>
       </c>
       <c r="F2" t="n">
-        <v>141745.4664845208</v>
+        <v>141745.4664845207</v>
       </c>
       <c r="G2" t="n">
         <v>141745.4664845208</v>
@@ -26332,13 +26332,13 @@
         <v>141745.4664845208</v>
       </c>
       <c r="I2" t="n">
-        <v>141745.4664845208</v>
+        <v>141745.4664845207</v>
       </c>
       <c r="J2" t="n">
         <v>141745.4664845208</v>
       </c>
       <c r="K2" t="n">
-        <v>141745.4664845208</v>
+        <v>141745.4664845207</v>
       </c>
       <c r="L2" t="n">
         <v>141745.4664845208</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966587</v>
       </c>
       <c r="F4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966587</v>
       </c>
       <c r="G4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="H4" t="n">
-        <v>19860.81663697799</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="I4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="J4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966587</v>
       </c>
       <c r="K4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="L4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="M4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966587</v>
       </c>
       <c r="N4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966587</v>
       </c>
       <c r="O4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="P4" t="n">
-        <v>19860.81663697798</v>
+        <v>16991.84893966586</v>
       </c>
     </row>
     <row r="5">
@@ -26503,13 +26503,13 @@
         <v>17553.77951678014</v>
       </c>
       <c r="N5" t="n">
-        <v>17553.77951678014</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="O5" t="n">
-        <v>17553.77951678014</v>
+        <v>17553.77951678015</v>
       </c>
       <c r="P5" t="n">
-        <v>17553.77951678014</v>
+        <v>17553.77951678015</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15897.24715567641</v>
+        <v>-13036.85191122434</v>
       </c>
       <c r="C6" t="n">
-        <v>64872.18437587126</v>
+        <v>67732.57962032346</v>
       </c>
       <c r="D6" t="n">
-        <v>64872.18437587129</v>
+        <v>67732.57962032343</v>
       </c>
       <c r="E6" t="n">
-        <v>65701.98920152703</v>
+        <v>68570.95689883917</v>
       </c>
       <c r="F6" t="n">
-        <v>104330.8703307627</v>
+        <v>107199.8380280747</v>
       </c>
       <c r="G6" t="n">
-        <v>104330.8703307627</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="H6" t="n">
-        <v>104330.8703307627</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="I6" t="n">
-        <v>104330.8703307627</v>
+        <v>107199.8380280747</v>
       </c>
       <c r="J6" t="n">
-        <v>41270.92773165641</v>
+        <v>44139.89542896858</v>
       </c>
       <c r="K6" t="n">
-        <v>104330.8703307627</v>
+        <v>107199.8380280747</v>
       </c>
       <c r="L6" t="n">
-        <v>104330.8703307627</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="M6" t="n">
-        <v>95573.28733554904</v>
+        <v>98442.25503286118</v>
       </c>
       <c r="N6" t="n">
-        <v>104330.8703307627</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="O6" t="n">
-        <v>104330.8703307627</v>
+        <v>107199.8380280748</v>
       </c>
       <c r="P6" t="n">
-        <v>104330.8703307627</v>
+        <v>107199.8380280748</v>
       </c>
     </row>
   </sheetData>
@@ -26747,13 +26747,13 @@
         <v>35.02126071912529</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.0212607191253</v>
       </c>
       <c r="G3" t="n">
         <v>35.02126071912532</v>
       </c>
       <c r="H3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="I3" t="n">
         <v>35.02126071912532</v>
@@ -26774,10 +26774,10 @@
         <v>35.02126071912532</v>
       </c>
       <c r="O3" t="n">
-        <v>35.02126071912532</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="P3" t="n">
-        <v>35.02126071912532</v>
+        <v>35.02126071912533</v>
       </c>
     </row>
     <row r="4">
@@ -26823,13 +26823,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="N4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="P4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31993,7 +31993,7 @@
         <v>1.441855221466299</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760114</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461251</v>
@@ -32008,25 +32008,25 @@
         <v>24.7213143567723</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840332</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081216</v>
       </c>
       <c r="P14" t="n">
         <v>20.24563243411504</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796962</v>
       </c>
       <c r="R14" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870372</v>
       </c>
       <c r="S14" t="n">
         <v>3.208229059847509</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626973</v>
       </c>
       <c r="U14" t="n">
         <v>0.01126311902524632</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132612</v>
       </c>
       <c r="H15" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520182</v>
       </c>
       <c r="I15" t="n">
         <v>2.593555628727676</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779983</v>
       </c>
       <c r="K15" t="n">
         <v>12.16394109335883</v>
@@ -32084,28 +32084,28 @@
         <v>16.35591992358772</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192329</v>
       </c>
       <c r="N15" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833407</v>
       </c>
       <c r="O15" t="n">
         <v>17.92262575689047</v>
       </c>
       <c r="P15" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650262</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164366</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263566</v>
       </c>
       <c r="S15" t="n">
         <v>1.399198482504675</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497749</v>
       </c>
       <c r="U15" t="n">
         <v>0.004955838781008299</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006201</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623699</v>
       </c>
       <c r="I16" t="n">
         <v>1.89918574522732</v>
       </c>
       <c r="J16" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174384</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170838</v>
+        <v>7.33724118017084</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894677</v>
       </c>
       <c r="M16" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948809</v>
       </c>
       <c r="N16" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394042</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179677</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938406</v>
       </c>
       <c r="Q16" t="n">
         <v>5.28821036858792</v>
@@ -32187,7 +32187,7 @@
         <v>0.2698359432457194</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094296</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32467,16 +32467,16 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I20" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L20" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M20" t="n">
         <v>24.72131435677232</v>
@@ -32543,13 +32543,13 @@
         <v>0.07532874947132617</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I21" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J21" t="n">
-        <v>7.116914878779989</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K21" t="n">
         <v>12.16394109335884</v>
@@ -32570,19 +32570,19 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R21" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S21" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,7 +32622,7 @@
         <v>0.06315309310006205</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I22" t="n">
         <v>1.899185745227321</v>
@@ -32631,31 +32631,31 @@
         <v>4.464923682174387</v>
       </c>
       <c r="K22" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L22" t="n">
         <v>9.389142586894682</v>
       </c>
       <c r="M22" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N22" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O22" t="n">
         <v>8.926402650179684</v>
       </c>
       <c r="P22" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R22" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S22" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T22" t="n">
         <v>0.2698359432457196</v>
@@ -34126,16 +34126,16 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I41" t="n">
-        <v>5.427767452760118</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
-        <v>17.90888720884598</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L41" t="n">
-        <v>22.21755819470701</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M41" t="n">
         <v>24.72131435677232</v>
@@ -34153,16 +34153,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R41" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S41" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7275171330520186</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I42" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J42" t="n">
-        <v>7.116914878779988</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K42" t="n">
         <v>12.16394109335884</v>
@@ -34220,7 +34220,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N42" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O42" t="n">
         <v>17.92262575689049</v>
@@ -34229,19 +34229,19 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.615648792164373</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R42" t="n">
-        <v>4.676990252263568</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S42" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3036277226497751</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,43 +34278,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5614884095623702</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I43" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J43" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K43" t="n">
-        <v>7.337241180170844</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L43" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M43" t="n">
-        <v>9.899534402948817</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N43" t="n">
-        <v>9.664145601394047</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O43" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P43" t="n">
-        <v>7.638079550938411</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.288210368587923</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R43" t="n">
-        <v>2.839592713390062</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S43" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T43" t="n">
         <v>0.2698359432457196</v>
@@ -34363,16 +34363,16 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I44" t="n">
-        <v>5.427767452760118</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
-        <v>17.90888720884598</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L44" t="n">
-        <v>22.21755819470701</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M44" t="n">
         <v>24.72131435677232</v>
@@ -34390,16 +34390,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R44" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S44" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7275171330520186</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I45" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J45" t="n">
-        <v>7.116914878779988</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K45" t="n">
         <v>12.16394109335884</v>
@@ -34457,7 +34457,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N45" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O45" t="n">
         <v>17.92262575689049</v>
@@ -34466,19 +34466,19 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.615648792164373</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R45" t="n">
-        <v>4.676990252263568</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S45" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3036277226497751</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,43 +34515,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5614884095623702</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I46" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J46" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K46" t="n">
-        <v>7.337241180170844</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L46" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M46" t="n">
-        <v>9.899534402948817</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N46" t="n">
-        <v>9.664145601394047</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O46" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P46" t="n">
-        <v>7.638079550938411</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.288210368587923</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R46" t="n">
-        <v>2.839592713390062</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S46" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T46" t="n">
         <v>0.2698359432457196</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34787,7 +34787,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>55.51629994036225</v>
-      </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,13 +35261,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="N12" t="n">
-        <v>276.1565137023554</v>
+        <v>20.89710520914779</v>
       </c>
       <c r="O12" t="n">
         <v>269.1887005891755</v>
       </c>
       <c r="P12" t="n">
-        <v>53.46758630449617</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q12" t="n">
         <v>79.71116244199195</v>
@@ -35665,7 +35665,7 @@
         <v>110.8113448503281</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424812</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.370323552522127</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L15" t="n">
         <v>248.6418854471727</v>
@@ -35735,16 +35735,16 @@
         <v>276.1565137023554</v>
       </c>
       <c r="N15" t="n">
-        <v>219.7699536912574</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O15" t="n">
-        <v>269.1887005891755</v>
+        <v>147.3552403359688</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M16" t="n">
         <v>49.4834113647894</v>
@@ -35820,7 +35820,7 @@
         <v>33.51153056421935</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831894</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M18" t="n">
-        <v>100.6082676511395</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N18" t="n">
-        <v>276.1565137023554</v>
+        <v>94.23794409861736</v>
       </c>
       <c r="O18" t="n">
         <v>269.1887005891756</v>
@@ -36139,7 +36139,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.212927593424823</v>
+        <v>5.212927593424821</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.370323552522132</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L21" t="n">
-        <v>66.72331584343468</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M21" t="n">
-        <v>276.1565137023554</v>
+        <v>151.8955562274025</v>
       </c>
       <c r="N21" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>269.1887005891756</v>
@@ -36218,7 +36218,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P22" t="n">
-        <v>4.9166388158319</v>
+        <v>4.916638815831899</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="N24" t="n">
-        <v>276.1565137023554</v>
+        <v>94.23794409861736</v>
       </c>
       <c r="O24" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P24" t="n">
-        <v>23.32460243089367</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.370323552522131</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M27" t="n">
-        <v>94.23794409861736</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N27" t="n">
-        <v>276.1565137023554</v>
+        <v>219.7699536912573</v>
       </c>
       <c r="O27" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P27" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>73.09363939595681</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M33" t="n">
         <v>276.1565137023554</v>
@@ -37163,7 +37163,7 @@
         <v>269.1887005891756</v>
       </c>
       <c r="P33" t="n">
-        <v>198.8728484821096</v>
+        <v>23.32460243089367</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>6.370323552522131</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>276.1565137023554</v>
       </c>
       <c r="N36" t="n">
-        <v>213.3996301387351</v>
+        <v>100.6082676511395</v>
       </c>
       <c r="O36" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q36" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>6.370323552522131</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L39" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M39" t="n">
-        <v>213.3996301387351</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N39" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O39" t="n">
-        <v>269.1887005891756</v>
+        <v>147.3552403359689</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.212927593424821</v>
+        <v>5.212927593424865</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M42" t="n">
-        <v>158.2658797799246</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O42" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P42" t="n">
-        <v>198.8728484821096</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q42" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P43" t="n">
-        <v>4.916638815831899</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>121.9644487350302</v>
+        <v>121.9644487350303</v>
       </c>
       <c r="L44" t="n">
         <v>204.1123577751702</v>
@@ -38029,13 +38029,13 @@
         <v>233.0551918837966</v>
       </c>
       <c r="O44" t="n">
-        <v>174.4233304118707</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P44" t="n">
         <v>110.8113448503282</v>
       </c>
       <c r="Q44" t="n">
-        <v>5.212927593424821</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L45" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M45" t="n">
-        <v>158.2658797799246</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>158.2658797799248</v>
       </c>
       <c r="O45" t="n">
         <v>269.1887005891756</v>
@@ -38190,7 +38190,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P46" t="n">
-        <v>4.916638815831899</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
